--- a/release/Release.xlsx
+++ b/release/Release.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\STSWorkspace\SonarQubeExporter\release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90216D0-FE0E-43CE-A040-F07608569F7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE43CBB2-D4F3-44D2-ADD9-541833C000BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{22AE909C-F920-49A0-9FB2-4225CFC025C5}"/>
   </bookViews>
@@ -44,7 +44,11 @@
   <si>
     <t>It retrieves all details wrt Project Key.
 Duplicate codes are not included in excel.
-Two sheets are available - Summary &amp; Report</t>
+Two sheets are available - Summary &amp; Report
+Command format:
+java -jar executable.jar SonarQubeURL SonarToken ProjectKey ProjectName
+Command example:
+java -jar SonarQubeExporter.jar http://localhost:9000/ da5ad9e667faf116e42a8aadfb33d0b64f45bd99 EmployeeTracking EmployeeTracking_Demo_Code</t>
   </si>
 </sst>
 </file>
@@ -491,12 +495,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D017EF48-76CE-4BF2-A134-1D7BADAC905E}">
   <dimension ref="B2:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:H3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="98.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
@@ -512,7 +519,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="2:8" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="159" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>

--- a/release/Release.xlsx
+++ b/release/Release.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\STSWorkspace\SonarQubeExporter\release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sonar-qube-exporter\release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE43CBB2-D4F3-44D2-ADD9-541833C000BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE67C02-52CE-4971-88CE-F08AA65A4605}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{22AE909C-F920-49A0-9FB2-4225CFC025C5}"/>
   </bookViews>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Version</t>
   </si>
@@ -49,6 +43,15 @@
 java -jar executable.jar SonarQubeURL SonarToken ProjectKey ProjectName
 Command example:
 java -jar SonarQubeExporter.jar http://localhost:9000/ da5ad9e667faf116e42a8aadfb33d0b64f45bd99 EmployeeTracking EmployeeTracking_Demo_Code</t>
+  </si>
+  <si>
+    <t>1.1.0.0</t>
+  </si>
+  <si>
+    <t>Excel formatting
+Issue API validation
+Code optimization and enhancements
+Replaced logback by log4j</t>
   </si>
 </sst>
 </file>
@@ -152,24 +155,12 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -178,6 +169,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -496,7 +499,7 @@
   <dimension ref="B2:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:H3"/>
+      <selection activeCell="C5" sqref="C5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -507,34 +510,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="159" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="1"/>
-      <c r="C4" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="2:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -542,49 +549,49 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="1"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="1"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="1"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="1"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="8">
